--- a/fuentes/contenidos/grado07/guion04/Escaleta_MA_07_04_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion04/Escaleta_MA_07_04_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repositorio_MA_07\MA_07_04_CO\MA_07_04_CO_Primera_Edicion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Matematicas\fuentes\contenidos\grado07\guion04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1187,75 +1187,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1426,6 +1357,75 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1733,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,18 +1742,18 @@
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="23" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="99" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="76" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="96" customWidth="1"/>
-    <col min="9" max="9" width="11" style="96" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="11" style="73" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="84" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="61" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1762,1531 +1762,1531 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="104"/>
+      <c r="O1" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="86" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="34"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="99"/>
       <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43"/>
-    </row>
-    <row r="3" spans="1:21" s="90" customFormat="1" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="87"/>
+    </row>
+    <row r="3" spans="1:21" s="67" customFormat="1" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="48" t="s">
+      <c r="E3" s="63"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="89" t="s">
+      <c r="I3" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="82" t="s">
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="P3" s="82" t="s">
+      <c r="P3" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="Q3" s="70">
+      <c r="Q3" s="47">
         <v>7</v>
       </c>
-      <c r="R3" s="69" t="s">
+      <c r="R3" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="S3" s="70" t="s">
+      <c r="S3" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="T3" s="71"/>
-      <c r="U3" s="70"/>
-    </row>
-    <row r="4" spans="1:21" s="90" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="47"/>
+    </row>
+    <row r="4" spans="1:21" s="67" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="48" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="N4" s="62"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="70"/>
-    </row>
-    <row r="5" spans="1:21" s="90" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="N4" s="39"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="47"/>
+    </row>
+    <row r="5" spans="1:21" s="67" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="49" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="73"/>
-    </row>
-    <row r="6" spans="1:21" s="90" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="50"/>
+    </row>
+    <row r="6" spans="1:21" s="67" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="49" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="73"/>
-    </row>
-    <row r="7" spans="1:21" s="90" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="50"/>
+    </row>
+    <row r="7" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="69"/>
+      <c r="G7" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M7" s="66"/>
-      <c r="N7" s="65" t="s">
+      <c r="M7" s="43"/>
+      <c r="N7" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="82" t="s">
+      <c r="O7" s="60"/>
+      <c r="P7" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q7" s="70">
+      <c r="Q7" s="47">
         <v>7</v>
       </c>
-      <c r="R7" s="75" t="s">
+      <c r="R7" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S7" s="76" t="s">
+      <c r="S7" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="T7" s="77" t="s">
+      <c r="T7" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="U7" s="76" t="s">
+      <c r="U7" s="53" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="90" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+    <row r="8" spans="1:21" s="67" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="51" t="s">
+      <c r="F8" s="69"/>
+      <c r="G8" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="I8" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M8" s="65"/>
-      <c r="N8" s="62" t="s">
+      <c r="M8" s="42"/>
+      <c r="N8" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="83" t="s">
+      <c r="O8" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="82" t="s">
+      <c r="P8" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q8" s="70">
+      <c r="Q8" s="47">
         <v>7</v>
       </c>
-      <c r="R8" s="75" t="s">
+      <c r="R8" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S8" s="76" t="s">
+      <c r="S8" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="T8" s="77" t="s">
+      <c r="T8" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="U8" s="76" t="s">
+      <c r="U8" s="53" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="90" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+    <row r="9" spans="1:21" s="67" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="50" t="s">
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="83" t="s">
+      <c r="N9" s="42"/>
+      <c r="O9" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="P9" s="82" t="s">
+      <c r="P9" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="Q9" s="70">
+      <c r="Q9" s="47">
         <v>7</v>
       </c>
-      <c r="R9" s="75" t="s">
+      <c r="R9" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="S9" s="76" t="s">
+      <c r="S9" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="T9" s="77" t="s">
+      <c r="T9" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="U9" s="76" t="s">
+      <c r="U9" s="53" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="90" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+    <row r="10" spans="1:21" s="67" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="50" t="s">
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="93" t="s">
+      <c r="H10" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="I10" s="89" t="s">
+      <c r="I10" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L10" s="60" t="s">
+      <c r="L10" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M10" s="66"/>
-      <c r="N10" s="65" t="s">
+      <c r="M10" s="43"/>
+      <c r="N10" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="O10" s="83" t="s">
+      <c r="O10" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="P10" s="82" t="s">
+      <c r="P10" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q10" s="70">
+      <c r="Q10" s="47">
         <v>7</v>
       </c>
-      <c r="R10" s="75" t="s">
+      <c r="R10" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S10" s="78" t="s">
+      <c r="S10" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="T10" s="79" t="s">
+      <c r="T10" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="U10" s="76" t="s">
+      <c r="U10" s="53" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="90" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+    <row r="11" spans="1:21" s="67" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="50" t="s">
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H11" s="89" t="s">
+      <c r="H11" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L11" s="60" t="s">
+      <c r="L11" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="65" t="s">
+      <c r="M11" s="43"/>
+      <c r="N11" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="O11" s="83" t="s">
+      <c r="O11" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="P11" s="82" t="s">
+      <c r="P11" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q11" s="70">
+      <c r="Q11" s="47">
         <v>7</v>
       </c>
-      <c r="R11" s="75" t="s">
+      <c r="R11" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S11" s="76" t="s">
+      <c r="S11" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="T11" s="77" t="s">
+      <c r="T11" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="U11" s="76" t="s">
+      <c r="U11" s="53" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="90" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+    <row r="12" spans="1:21" s="67" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="50" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="89" t="s">
+      <c r="I12" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="62" t="s">
+      <c r="M12" s="42"/>
+      <c r="N12" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="P12" s="82" t="s">
+      <c r="P12" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="Q12" s="70">
+      <c r="Q12" s="47">
         <v>7</v>
       </c>
-      <c r="R12" s="75" t="s">
+      <c r="R12" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S12" s="76" t="s">
+      <c r="S12" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="T12" s="77" t="s">
+      <c r="T12" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="53" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="90" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+    <row r="13" spans="1:21" s="67" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="50" t="s">
+      <c r="F13" s="69"/>
+      <c r="G13" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="89" t="s">
+      <c r="I13" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="M13" s="66" t="s">
+      <c r="M13" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="N13" s="65"/>
-      <c r="O13" s="83" t="s">
+      <c r="N13" s="42"/>
+      <c r="O13" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="P13" s="82" t="s">
+      <c r="P13" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="Q13" s="70">
+      <c r="Q13" s="47">
         <v>7</v>
       </c>
-      <c r="R13" s="75" t="s">
+      <c r="R13" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="S13" s="76" t="s">
+      <c r="S13" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="T13" s="77" t="s">
+      <c r="T13" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="U13" s="76" t="s">
+      <c r="U13" s="53" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="90" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+    <row r="14" spans="1:21" s="67" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="50" t="s">
+      <c r="F14" s="69"/>
+      <c r="G14" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="89" t="s">
+      <c r="I14" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M14" s="66"/>
-      <c r="N14" s="65" t="s">
+      <c r="M14" s="43"/>
+      <c r="N14" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="O14" s="83" t="s">
+      <c r="O14" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="P14" s="82" t="s">
+      <c r="P14" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q14" s="70">
+      <c r="Q14" s="47">
         <v>7</v>
       </c>
-      <c r="R14" s="75" t="s">
+      <c r="R14" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S14" s="76" t="s">
+      <c r="S14" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="T14" s="77" t="s">
+      <c r="T14" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="U14" s="76" t="s">
+      <c r="U14" s="53" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="90" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+    <row r="15" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="50" t="s">
+      <c r="F15" s="69"/>
+      <c r="G15" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="89" t="s">
+      <c r="H15" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="M15" s="65" t="s">
+      <c r="M15" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="N15" s="95"/>
-      <c r="O15" s="83" t="s">
+      <c r="N15" s="72"/>
+      <c r="O15" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="P15" s="82" t="s">
+      <c r="P15" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="Q15" s="70">
+      <c r="Q15" s="47">
         <v>7</v>
       </c>
-      <c r="R15" s="75" t="s">
+      <c r="R15" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="S15" s="76" t="s">
+      <c r="S15" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="T15" s="77" t="s">
+      <c r="T15" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="U15" s="76" t="s">
+      <c r="U15" s="53" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="90" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+    <row r="16" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="50" t="s">
+      <c r="F16" s="69"/>
+      <c r="G16" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="89" t="s">
+      <c r="I16" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="N16" s="95"/>
-      <c r="O16" s="83" t="s">
+      <c r="N16" s="72"/>
+      <c r="O16" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="P16" s="82" t="s">
+      <c r="P16" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="Q16" s="70">
+      <c r="Q16" s="47">
         <v>7</v>
       </c>
-      <c r="R16" s="75" t="s">
+      <c r="R16" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="S16" s="76" t="s">
+      <c r="S16" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="T16" s="77" t="s">
+      <c r="T16" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="U16" s="76" t="s">
+      <c r="U16" s="53" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="90" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+    <row r="17" spans="1:21" s="67" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="50" t="s">
+      <c r="F17" s="69"/>
+      <c r="G17" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="89" t="s">
+      <c r="H17" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="89" t="s">
+      <c r="I17" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M17" s="66"/>
-      <c r="N17" s="65" t="s">
+      <c r="M17" s="43"/>
+      <c r="N17" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="83" t="s">
+      <c r="O17" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="P17" s="82" t="s">
+      <c r="P17" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q17" s="70">
+      <c r="Q17" s="47">
         <v>7</v>
       </c>
-      <c r="R17" s="75" t="s">
+      <c r="R17" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S17" s="76" t="s">
+      <c r="S17" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="T17" s="77" t="s">
+      <c r="T17" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="U17" s="76" t="s">
+      <c r="U17" s="53" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="90" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+    <row r="18" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="E18" s="91" t="s">
+      <c r="E18" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="50" t="s">
+      <c r="F18" s="69"/>
+      <c r="G18" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="93" t="s">
+      <c r="H18" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="I18" s="89" t="s">
+      <c r="I18" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L18" s="60" t="s">
+      <c r="L18" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="65" t="s">
+      <c r="M18" s="43"/>
+      <c r="N18" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="O18" s="83" t="s">
+      <c r="O18" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="P18" s="82" t="s">
+      <c r="P18" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q18" s="70">
+      <c r="Q18" s="47">
         <v>7</v>
       </c>
-      <c r="R18" s="75" t="s">
+      <c r="R18" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S18" s="76" t="s">
+      <c r="S18" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="T18" s="77" t="s">
+      <c r="T18" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="U18" s="76" t="s">
+      <c r="U18" s="53" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="90" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+    <row r="19" spans="1:21" s="67" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="50" t="s">
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="89" t="s">
+      <c r="H19" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="89" t="s">
+      <c r="I19" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="L19" s="60" t="s">
+      <c r="L19" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="M19" s="66" t="s">
+      <c r="M19" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="N19" s="65"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="82" t="s">
+      <c r="N19" s="42"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q19" s="70" t="s">
+      <c r="Q19" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="R19" s="75" t="s">
+      <c r="R19" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="S19" s="78" t="s">
+      <c r="S19" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="T19" s="79" t="s">
+      <c r="T19" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="U19" s="76" t="s">
+      <c r="U19" s="53" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="90" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+    <row r="20" spans="1:21" s="67" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="50" t="s">
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="93" t="s">
+      <c r="H20" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="89" t="s">
+      <c r="I20" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="K20" s="57" t="s">
+      <c r="K20" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="M20" s="66" t="s">
+      <c r="M20" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="N20" s="65"/>
-      <c r="O20" s="83" t="s">
+      <c r="N20" s="42"/>
+      <c r="O20" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="P20" s="82" t="s">
+      <c r="P20" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q20" s="70">
+      <c r="Q20" s="47">
         <v>7</v>
       </c>
-      <c r="R20" s="75" t="s">
+      <c r="R20" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="S20" s="76" t="s">
+      <c r="S20" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="T20" s="77" t="s">
+      <c r="T20" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="U20" s="76" t="s">
+      <c r="U20" s="53" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="90" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
+    <row r="21" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="51" t="s">
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="89" t="s">
+      <c r="H21" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="89" t="s">
+      <c r="I21" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M21" s="65"/>
-      <c r="N21" s="62" t="s">
+      <c r="M21" s="42"/>
+      <c r="N21" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="83" t="s">
+      <c r="O21" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="P21" s="82" t="s">
+      <c r="P21" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q21" s="70">
+      <c r="Q21" s="47">
         <v>7</v>
       </c>
-      <c r="R21" s="75" t="s">
+      <c r="R21" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S21" s="76" t="s">
+      <c r="S21" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="T21" s="77" t="s">
+      <c r="T21" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="U21" s="76" t="s">
+      <c r="U21" s="53" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="90" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+    <row r="22" spans="1:21" s="67" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="50" t="s">
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="93" t="s">
+      <c r="H22" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="I22" s="89" t="s">
+      <c r="I22" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J22" s="54" t="s">
+      <c r="J22" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="K22" s="57" t="s">
+      <c r="K22" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L22" s="60" t="s">
+      <c r="L22" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M22" s="66"/>
-      <c r="N22" s="65" t="s">
+      <c r="M22" s="43"/>
+      <c r="N22" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="O22" s="83" t="s">
+      <c r="O22" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="P22" s="82" t="s">
+      <c r="P22" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q22" s="70">
+      <c r="Q22" s="47">
         <v>7</v>
       </c>
-      <c r="R22" s="75" t="s">
+      <c r="R22" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S22" s="78" t="s">
+      <c r="S22" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="T22" s="79" t="s">
+      <c r="T22" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="U22" s="76" t="s">
+      <c r="U22" s="53" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="90" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
+    <row r="23" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="E23" s="91" t="s">
+      <c r="E23" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="F23" s="92"/>
-      <c r="G23" s="51" t="s">
+      <c r="F23" s="69"/>
+      <c r="G23" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="I23" s="89" t="s">
+      <c r="I23" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J23" s="54" t="s">
+      <c r="J23" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L23" s="60" t="s">
+      <c r="L23" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65" t="s">
+      <c r="M23" s="43"/>
+      <c r="N23" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="O23" s="83" t="s">
+      <c r="O23" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="P23" s="82" t="s">
+      <c r="P23" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q23" s="70">
+      <c r="Q23" s="47">
         <v>7</v>
       </c>
-      <c r="R23" s="75" t="s">
+      <c r="R23" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S23" s="76" t="s">
+      <c r="S23" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="T23" s="77" t="s">
+      <c r="T23" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="U23" s="76" t="s">
+      <c r="U23" s="53" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="74" t="s">
         <v>266</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="93" t="s">
+      <c r="H24" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="89" t="s">
+      <c r="I24" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="J24" s="55" t="s">
+      <c r="J24" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="K24" s="57" t="s">
+      <c r="K24" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="L24" s="60" t="s">
+      <c r="L24" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="M24" s="65" t="s">
+      <c r="M24" s="42" t="s">
         <v>208</v>
       </c>
       <c r="N24" s="7"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="82" t="s">
+      <c r="O24" s="45"/>
+      <c r="P24" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q24" s="70" t="s">
+      <c r="Q24" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="R24" s="75" t="s">
+      <c r="R24" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="S24" s="78" t="s">
+      <c r="S24" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="T24" s="79" t="s">
+      <c r="T24" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="U24" s="76" t="s">
+      <c r="U24" s="53" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="74" t="s">
         <v>266</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="89" t="s">
+      <c r="H25" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="89" t="s">
+      <c r="I25" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J25" s="56" t="s">
+      <c r="J25" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="57" t="s">
+      <c r="K25" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M25" s="64"/>
-      <c r="N25" s="65" t="s">
+      <c r="M25" s="41"/>
+      <c r="N25" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="O25" s="68" t="s">
+      <c r="O25" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="P25" s="82" t="s">
+      <c r="P25" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q25" s="70">
+      <c r="Q25" s="47">
         <v>7</v>
       </c>
-      <c r="R25" s="75" t="s">
+      <c r="R25" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S25" s="78" t="s">
+      <c r="S25" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="T25" s="79" t="s">
+      <c r="T25" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="U25" s="76" t="s">
+      <c r="U25" s="53" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="74" t="s">
         <v>267</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="89" t="s">
+      <c r="I26" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="61" t="s">
+      <c r="J26" s="31"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="M26" s="64"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="82" t="s">
+      <c r="M26" s="41"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q26" s="70">
+      <c r="Q26" s="47">
         <v>7</v>
       </c>
-      <c r="R26" s="75"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="76"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="53"/>
     </row>
     <row r="27" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="74" t="s">
         <v>267</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="H27" s="89" t="s">
+      <c r="H27" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="89" t="s">
+      <c r="I27" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="J27" s="54" t="s">
+      <c r="J27" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="57" t="s">
+      <c r="K27" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="L27" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="M27" s="65"/>
-      <c r="N27" s="62" t="s">
+      <c r="M27" s="42"/>
+      <c r="N27" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O27" s="68"/>
-      <c r="P27" s="82" t="s">
+      <c r="O27" s="45"/>
+      <c r="P27" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="Q27" s="70">
+      <c r="Q27" s="47">
         <v>7</v>
       </c>
-      <c r="R27" s="75" t="s">
+      <c r="R27" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="S27" s="78" t="s">
+      <c r="S27" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="T27" s="79" t="s">
+      <c r="T27" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="U27" s="76" t="s">
+      <c r="U27" s="53" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="100"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="105"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="82"/>
       <c r="K28" s="17"/>
       <c r="L28" s="16"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="82"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="59"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="21"/>
       <c r="S28" s="20"/>
@@ -3296,20 +3296,20 @@
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="97"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="12"/>
       <c r="F29" s="8"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="94"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="14"/>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="83"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="60"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="10"/>
       <c r="S29" s="9"/>
@@ -3319,20 +3319,20 @@
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="97"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="12"/>
       <c r="F30" s="8"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="94"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="14"/>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="83"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="60"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="10"/>
       <c r="S30" s="9"/>
@@ -3342,20 +3342,20 @@
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="97"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="12"/>
       <c r="F31" s="8"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="94"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="14"/>
       <c r="K31" s="6"/>
       <c r="L31" s="5"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="83"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="60"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="10"/>
       <c r="S31" s="9"/>
@@ -3365,20 +3365,20 @@
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="97"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="12"/>
       <c r="F32" s="8"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="94"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="71"/>
       <c r="J32" s="14"/>
       <c r="K32" s="6"/>
       <c r="L32" s="5"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="83"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="60"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="10"/>
       <c r="S32" s="9"/>
@@ -3388,20 +3388,20 @@
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="97"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="12"/>
       <c r="F33" s="8"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="94"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="71"/>
       <c r="J33" s="14"/>
       <c r="K33" s="6"/>
       <c r="L33" s="5"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="83"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="60"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="10"/>
       <c r="S33" s="9"/>
@@ -3411,20 +3411,20 @@
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="97"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="12"/>
       <c r="F34" s="8"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="94"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="71"/>
       <c r="J34" s="14"/>
       <c r="K34" s="6"/>
       <c r="L34" s="5"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="83"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="60"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="10"/>
       <c r="S34" s="9"/>
@@ -3434,20 +3434,20 @@
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="97"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="74"/>
       <c r="E35" s="12"/>
       <c r="F35" s="8"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="94"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="71"/>
       <c r="J35" s="14"/>
       <c r="K35" s="6"/>
       <c r="L35" s="5"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="83"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="60"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="10"/>
       <c r="S35" s="9"/>
@@ -3457,20 +3457,20 @@
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="97"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="12"/>
       <c r="F36" s="8"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="94"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="71"/>
       <c r="J36" s="14"/>
       <c r="K36" s="6"/>
       <c r="L36" s="5"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="83"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="60"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="10"/>
       <c r="S36" s="9"/>
@@ -3480,20 +3480,20 @@
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="97"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="74"/>
       <c r="E37" s="12"/>
       <c r="F37" s="8"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="94"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="14"/>
       <c r="K37" s="6"/>
       <c r="L37" s="5"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="83"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="60"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -3503,20 +3503,20 @@
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="97"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="12"/>
       <c r="F38" s="8"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="94"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="71"/>
       <c r="J38" s="14"/>
       <c r="K38" s="6"/>
       <c r="L38" s="5"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="83"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="60"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="10"/>
       <c r="S38" s="9"/>
@@ -3526,20 +3526,20 @@
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="97"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="12"/>
       <c r="F39" s="8"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="94"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="71"/>
       <c r="J39" s="14"/>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="83"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="60"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="10"/>
       <c r="S39" s="9"/>
@@ -3549,20 +3549,20 @@
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="97"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="12"/>
       <c r="F40" s="8"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="94"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="71"/>
       <c r="J40" s="14"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="83"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="60"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="10"/>
       <c r="S40" s="9"/>
@@ -3572,20 +3572,20 @@
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="97"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="12"/>
       <c r="F41" s="8"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="94"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="71"/>
       <c r="J41" s="14"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="83"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="60"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="10"/>
       <c r="S41" s="9"/>
@@ -3595,20 +3595,20 @@
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="97"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="12"/>
       <c r="F42" s="8"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="94"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="71"/>
       <c r="J42" s="14"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="83"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="60"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="10"/>
       <c r="S42" s="9"/>
@@ -3618,20 +3618,20 @@
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="97"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="12"/>
       <c r="F43" s="8"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="94"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="71"/>
       <c r="J43" s="14"/>
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="83"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="60"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="10"/>
       <c r="S43" s="9"/>
@@ -3641,20 +3641,20 @@
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="97"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="74"/>
       <c r="E44" s="12"/>
       <c r="F44" s="8"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="94"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="71"/>
       <c r="J44" s="14"/>
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="83"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="60"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="10"/>
       <c r="S44" s="9"/>
@@ -3664,20 +3664,20 @@
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="97"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="12"/>
       <c r="F45" s="8"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="94"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="71"/>
       <c r="J45" s="14"/>
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="83"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="60"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="10"/>
       <c r="S45" s="9"/>
@@ -3687,20 +3687,20 @@
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="97"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="74"/>
       <c r="E46" s="12"/>
       <c r="F46" s="8"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="94"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="71"/>
       <c r="J46" s="14"/>
       <c r="K46" s="6"/>
       <c r="L46" s="5"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="83"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="60"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="10"/>
       <c r="S46" s="9"/>
@@ -3710,20 +3710,20 @@
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="97"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="12"/>
       <c r="F47" s="8"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="94"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="71"/>
       <c r="J47" s="14"/>
       <c r="K47" s="6"/>
       <c r="L47" s="5"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="83"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="60"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="10"/>
       <c r="S47" s="9"/>
@@ -3733,20 +3733,20 @@
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="97"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="12"/>
       <c r="F48" s="8"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="94"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="71"/>
       <c r="J48" s="14"/>
       <c r="K48" s="6"/>
       <c r="L48" s="5"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="83"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="60"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="10"/>
       <c r="S48" s="9"/>
@@ -3756,20 +3756,20 @@
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="97"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="12"/>
       <c r="F49" s="8"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="94"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="71"/>
       <c r="J49" s="14"/>
       <c r="K49" s="6"/>
       <c r="L49" s="5"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="83"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="60"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="10"/>
       <c r="S49" s="9"/>
@@ -3779,20 +3779,20 @@
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="97"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="12"/>
       <c r="F50" s="8"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="94"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="14"/>
       <c r="K50" s="6"/>
       <c r="L50" s="5"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="83"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="60"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="10"/>
       <c r="S50" s="9"/>
@@ -3802,20 +3802,20 @@
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="97"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="74"/>
       <c r="E51" s="12"/>
       <c r="F51" s="8"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="94"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="71"/>
       <c r="J51" s="14"/>
       <c r="K51" s="6"/>
       <c r="L51" s="5"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="68"/>
-      <c r="P51" s="83"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="60"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="10"/>
       <c r="S51" s="9"/>
@@ -3825,20 +3825,20 @@
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="97"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="74"/>
       <c r="E52" s="12"/>
       <c r="F52" s="8"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="94"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="71"/>
       <c r="J52" s="14"/>
       <c r="K52" s="6"/>
       <c r="L52" s="5"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="83"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="60"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="10"/>
       <c r="S52" s="9"/>
@@ -3848,20 +3848,20 @@
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="97"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="74"/>
       <c r="E53" s="12"/>
       <c r="F53" s="8"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="94"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="71"/>
       <c r="J53" s="14"/>
       <c r="K53" s="6"/>
       <c r="L53" s="5"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="83"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="60"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="10"/>
       <c r="S53" s="9"/>
@@ -3871,20 +3871,20 @@
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="97"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="74"/>
       <c r="E54" s="12"/>
       <c r="F54" s="8"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="94"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="71"/>
       <c r="J54" s="14"/>
       <c r="K54" s="6"/>
       <c r="L54" s="5"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="83"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="60"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="10"/>
       <c r="S54" s="9"/>
@@ -3894,20 +3894,20 @@
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="97"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="12"/>
       <c r="F55" s="8"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="94"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="71"/>
       <c r="J55" s="14"/>
       <c r="K55" s="6"/>
       <c r="L55" s="5"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="83"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="60"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="10"/>
       <c r="S55" s="9"/>
@@ -3917,20 +3917,20 @@
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="97"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="12"/>
       <c r="F56" s="8"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="94"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="71"/>
       <c r="J56" s="14"/>
       <c r="K56" s="6"/>
       <c r="L56" s="5"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="83"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="60"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="10"/>
       <c r="S56" s="9"/>
@@ -3940,20 +3940,20 @@
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="97"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="12"/>
       <c r="F57" s="8"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="94"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="71"/>
       <c r="J57" s="14"/>
       <c r="K57" s="6"/>
       <c r="L57" s="5"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="83"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="60"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="10"/>
       <c r="S57" s="9"/>
@@ -3963,20 +3963,20 @@
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="97"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="12"/>
       <c r="F58" s="8"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="94"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="71"/>
       <c r="J58" s="14"/>
       <c r="K58" s="6"/>
       <c r="L58" s="5"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="83"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="60"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="10"/>
       <c r="S58" s="9"/>
@@ -3986,20 +3986,20 @@
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="97"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="74"/>
       <c r="E59" s="12"/>
       <c r="F59" s="8"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="94"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="71"/>
       <c r="J59" s="14"/>
       <c r="K59" s="6"/>
       <c r="L59" s="5"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="83"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="60"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="10"/>
       <c r="S59" s="9"/>
@@ -4009,20 +4009,20 @@
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="97"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="74"/>
       <c r="E60" s="12"/>
       <c r="F60" s="8"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="94"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="71"/>
       <c r="J60" s="14"/>
       <c r="K60" s="6"/>
       <c r="L60" s="5"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="83"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="60"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="10"/>
       <c r="S60" s="9"/>
@@ -4032,20 +4032,20 @@
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="97"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="74"/>
       <c r="E61" s="12"/>
       <c r="F61" s="8"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="94"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="71"/>
       <c r="J61" s="14"/>
       <c r="K61" s="6"/>
       <c r="L61" s="5"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="83"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="60"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="10"/>
       <c r="S61" s="9"/>
@@ -4055,20 +4055,20 @@
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="97"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="74"/>
       <c r="E62" s="12"/>
       <c r="F62" s="8"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="94"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="71"/>
       <c r="J62" s="14"/>
       <c r="K62" s="6"/>
       <c r="L62" s="5"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="83"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="60"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10"/>
       <c r="S62" s="9"/>
@@ -4078,20 +4078,20 @@
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="97"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="12"/>
       <c r="F63" s="8"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="94"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="71"/>
       <c r="J63" s="14"/>
       <c r="K63" s="6"/>
       <c r="L63" s="5"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="68"/>
-      <c r="P63" s="83"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="60"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="10"/>
       <c r="S63" s="9"/>
@@ -4101,20 +4101,20 @@
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="97"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="74"/>
       <c r="E64" s="12"/>
       <c r="F64" s="8"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="94"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="71"/>
       <c r="J64" s="14"/>
       <c r="K64" s="6"/>
       <c r="L64" s="5"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="68"/>
-      <c r="P64" s="83"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="60"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="10"/>
       <c r="S64" s="9"/>
@@ -4124,20 +4124,20 @@
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="97"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="74"/>
       <c r="E65" s="12"/>
       <c r="F65" s="8"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="94"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="71"/>
       <c r="J65" s="14"/>
       <c r="K65" s="6"/>
       <c r="L65" s="5"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="68"/>
-      <c r="P65" s="83"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="60"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="10"/>
       <c r="S65" s="9"/>
@@ -4147,20 +4147,20 @@
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="97"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="74"/>
       <c r="E66" s="12"/>
       <c r="F66" s="8"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="94"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="71"/>
       <c r="J66" s="14"/>
       <c r="K66" s="6"/>
       <c r="L66" s="5"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="68"/>
-      <c r="P66" s="83"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="60"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="10"/>
       <c r="S66" s="9"/>
@@ -4170,20 +4170,20 @@
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="97"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="74"/>
       <c r="E67" s="12"/>
       <c r="F67" s="8"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="94"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="71"/>
       <c r="J67" s="14"/>
       <c r="K67" s="6"/>
       <c r="L67" s="5"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="68"/>
-      <c r="P67" s="83"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="60"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="10"/>
       <c r="S67" s="9"/>
@@ -4193,20 +4193,20 @@
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="97"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="74"/>
       <c r="E68" s="12"/>
       <c r="F68" s="8"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="94"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="71"/>
       <c r="J68" s="14"/>
       <c r="K68" s="6"/>
       <c r="L68" s="5"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="68"/>
-      <c r="P68" s="83"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="60"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="10"/>
       <c r="S68" s="9"/>
@@ -4216,20 +4216,20 @@
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="80"/>
-      <c r="D69" s="97"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="74"/>
       <c r="E69" s="12"/>
       <c r="F69" s="8"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="94"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="71"/>
       <c r="J69" s="14"/>
       <c r="K69" s="6"/>
       <c r="L69" s="5"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="68"/>
-      <c r="P69" s="83"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="60"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="10"/>
       <c r="S69" s="9"/>
@@ -4239,20 +4239,20 @@
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="97"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="12"/>
       <c r="F70" s="8"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="94"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="71"/>
       <c r="J70" s="14"/>
       <c r="K70" s="6"/>
       <c r="L70" s="5"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="68"/>
-      <c r="P70" s="83"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="60"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="10"/>
       <c r="S70" s="9"/>
@@ -4625,12 +4625,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4645,6 +4639,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K27">

--- a/fuentes/contenidos/grado07/guion04/Escaleta_MA_07_04_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion04/Escaleta_MA_07_04_CO.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="274">
   <si>
     <t>Asignatura</t>
   </si>
@@ -745,9 +745,6 @@
     <t xml:space="preserve">MAPA CONCEPTUAL </t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
     <t>F7B</t>
   </si>
   <si>
@@ -935,6 +932,27 @@
   </si>
   <si>
     <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>Recurso M10B-01</t>
+  </si>
+  <si>
+    <t>Recurso F13-01</t>
+  </si>
+  <si>
+    <t>Este recurso debe enfocarse en presentar situaciones de la vida cotidiana que se representan a través de ecuaciones lineales, mostrar y explicar cómo se contruyen y la importancia de reconocer el valor de verdad de la ecuación, se recomienda ver el guion para identificar el enfoque, la idea es ahondar en la estructura presentada y dejar una tarea que el docente pueda usar durante la sesión de clase.</t>
+  </si>
+  <si>
+    <t>El recurso debe contener ejercicios para que el estudiante relacione situaciones con su representación a través de ecuaciones.</t>
+  </si>
+  <si>
+    <t>El recurso debe orientarse para que el estudiante muestre dominio en el reconocimiento de identidades, clasifica en es identidad no es identidad.</t>
+  </si>
+  <si>
+    <t>El recurso debe exponer expresiones como el doble de un número aumentado en 8 esquivale a 13, entre otros. Así el estudiante identifica el lenguaje y lo relaciona con una ecuación que la represente.</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1262,12 +1280,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1358,12 +1370,57 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1380,51 +1437,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1733,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,18 +1754,18 @@
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="23" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="76" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="74" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="73" customWidth="1"/>
-    <col min="9" max="9" width="11" style="73" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="71" customWidth="1"/>
+    <col min="9" max="9" width="11" style="71" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="61" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="59" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1762,81 +1774,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="104"/>
+      <c r="N1" s="96"/>
       <c r="O1" s="84" t="s">
         <v>109</v>
       </c>
       <c r="P1" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="S1" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="86" t="s">
+      <c r="U1" s="99" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="99"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="91"/>
       <c r="M2" s="24" t="s">
         <v>90</v>
       </c>
@@ -1845,35 +1857,35 @@
       </c>
       <c r="O2" s="85"/>
       <c r="P2" s="85"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="87"/>
-    </row>
-    <row r="3" spans="1:21" s="67" customFormat="1" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="Q2" s="100"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="100"/>
+    </row>
+    <row r="3" spans="1:21" s="65" customFormat="1" ht="79.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="65"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="66" t="s">
-        <v>228</v>
+      <c r="I3" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J3" s="29" t="s">
         <v>174</v>
@@ -1885,48 +1897,54 @@
         <v>201</v>
       </c>
       <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="P3" s="59" t="s">
-        <v>226</v>
+      <c r="N3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>225</v>
       </c>
       <c r="Q3" s="47">
         <v>7</v>
       </c>
       <c r="R3" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="S3" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="S3" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="47"/>
-    </row>
-    <row r="4" spans="1:21" s="67" customFormat="1" ht="126" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="T3" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="U3" s="47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="65" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="66" t="s">
-        <v>226</v>
+      <c r="I4" s="64" t="s">
+        <v>225</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>175</v>
@@ -1938,40 +1956,54 @@
         <v>202</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="N4" s="39"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="47"/>
-    </row>
-    <row r="5" spans="1:21" s="67" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="O4" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="P4" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>7</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="U4" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="65" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="66" t="s">
-        <v>228</v>
+      <c r="I5" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>176</v>
@@ -1983,38 +2015,54 @@
         <v>201</v>
       </c>
       <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="50"/>
-    </row>
-    <row r="6" spans="1:21" s="67" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="N5" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="P5" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>7</v>
+      </c>
+      <c r="R5" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="S5" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="T5" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="U5" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="65" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="66" t="s">
-        <v>228</v>
+      <c r="I6" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>177</v>
@@ -2026,40 +2074,56 @@
         <v>201</v>
       </c>
       <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="50"/>
-    </row>
-    <row r="7" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="N6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="P6" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>7</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="S6" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="T6" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="U6" s="47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="F7" s="69"/>
+      <c r="E7" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="67"/>
       <c r="G7" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="66" t="s">
-        <v>228</v>
+      <c r="I7" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>178</v>
@@ -2074,51 +2138,53 @@
       <c r="N7" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="O7" s="60"/>
-      <c r="P7" s="59" t="s">
-        <v>227</v>
+      <c r="O7" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q7" s="47">
         <v>7</v>
       </c>
-      <c r="R7" s="52" t="s">
+      <c r="R7" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S7" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="S7" s="53" t="s">
+      <c r="T7" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="T7" s="54" t="s">
+      <c r="U7" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="U7" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="67" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+    </row>
+    <row r="8" spans="1:21" s="65" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" s="69"/>
+      <c r="E8" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="67"/>
       <c r="G8" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="66" t="s">
-        <v>228</v>
+      <c r="I8" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>179</v>
@@ -2133,51 +2199,51 @@
       <c r="N8" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="P8" s="59" t="s">
-        <v>227</v>
+      <c r="O8" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q8" s="47">
         <v>7</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="R8" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S8" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="S8" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="T8" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="U8" s="53" t="s">
+      <c r="T8" s="52" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" s="67" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="U8" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="65" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
+      <c r="D9" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="66" t="s">
-        <v>227</v>
+      <c r="I9" s="64" t="s">
+        <v>226</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>180</v>
@@ -2189,54 +2255,54 @@
         <v>202</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N9" s="42"/>
-      <c r="O9" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="P9" s="59" t="s">
-        <v>228</v>
+      <c r="O9" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>227</v>
       </c>
       <c r="Q9" s="47">
         <v>7</v>
       </c>
-      <c r="R9" s="52" t="s">
+      <c r="R9" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="S9" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="S9" s="53" t="s">
+      <c r="T9" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="T9" s="54" t="s">
+      <c r="U9" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="U9" s="53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="67" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+    </row>
+    <row r="10" spans="1:21" s="65" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
+      <c r="D10" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="I10" s="66" t="s">
-        <v>228</v>
+      <c r="I10" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>181</v>
@@ -2251,51 +2317,51 @@
       <c r="N10" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="O10" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="P10" s="59" t="s">
-        <v>227</v>
+      <c r="O10" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q10" s="47">
         <v>7</v>
       </c>
-      <c r="R10" s="52" t="s">
+      <c r="R10" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S10" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="S10" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="T10" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="U10" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="67" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="T10" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="U10" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="65" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
+      <c r="D11" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H11" s="66" t="s">
+      <c r="H11" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="66" t="s">
-        <v>228</v>
+      <c r="I11" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>182</v>
@@ -2310,53 +2376,53 @@
       <c r="N11" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="O11" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="P11" s="59" t="s">
-        <v>227</v>
+      <c r="O11" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q11" s="47">
         <v>7</v>
       </c>
-      <c r="R11" s="52" t="s">
+      <c r="R11" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="S11" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="T11" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="U11" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="67" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="T11" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="U11" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="65" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="E12" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="66" t="s">
-        <v>228</v>
+      <c r="I12" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>183</v>
@@ -2371,53 +2437,53 @@
       <c r="N12" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="O12" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="P12" s="59" t="s">
-        <v>226</v>
+      <c r="O12" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>225</v>
       </c>
       <c r="Q12" s="47">
         <v>7</v>
       </c>
-      <c r="R12" s="52" t="s">
+      <c r="R12" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S12" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="S12" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="T12" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="U12" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="67" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="T12" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="U12" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="65" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="E13" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="F13" s="69"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="66" t="s">
-        <v>227</v>
+      <c r="I13" s="64" t="s">
+        <v>226</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>184</v>
@@ -2429,56 +2495,56 @@
         <v>202</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N13" s="42"/>
-      <c r="O13" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="P13" s="59" t="s">
-        <v>228</v>
+      <c r="O13" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="57" t="s">
+        <v>227</v>
       </c>
       <c r="Q13" s="47">
         <v>7</v>
       </c>
-      <c r="R13" s="52" t="s">
+      <c r="R13" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="S13" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="S13" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="T13" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="U13" s="53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="67" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="T13" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="U13" s="51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="65" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="69"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="66" t="s">
-        <v>228</v>
+      <c r="I14" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>185</v>
@@ -2493,53 +2559,53 @@
       <c r="N14" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="O14" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="P14" s="59" t="s">
-        <v>227</v>
+      <c r="O14" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q14" s="47">
         <v>7</v>
       </c>
-      <c r="R14" s="52" t="s">
+      <c r="R14" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S14" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="S14" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="T14" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="U14" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="T14" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="U14" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="69"/>
+      <c r="D15" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="67"/>
       <c r="G15" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="66" t="s">
-        <v>227</v>
+      <c r="I15" s="64" t="s">
+        <v>226</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>186</v>
@@ -2551,56 +2617,56 @@
         <v>202</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="N15" s="72"/>
-      <c r="O15" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="P15" s="59" t="s">
-        <v>228</v>
+        <v>205</v>
+      </c>
+      <c r="N15" s="70"/>
+      <c r="O15" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="P15" s="57" t="s">
+        <v>227</v>
       </c>
       <c r="Q15" s="47">
         <v>7</v>
       </c>
-      <c r="R15" s="52" t="s">
+      <c r="R15" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="S15" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="S15" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="T15" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="U15" s="53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="T15" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="U15" s="51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="69"/>
+      <c r="D16" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="67"/>
       <c r="G16" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="66" t="s">
-        <v>227</v>
+      <c r="I16" s="64" t="s">
+        <v>226</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>187</v>
@@ -2612,56 +2678,56 @@
         <v>202</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="N16" s="72"/>
-      <c r="O16" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="P16" s="59" t="s">
-        <v>228</v>
+        <v>205</v>
+      </c>
+      <c r="N16" s="70"/>
+      <c r="O16" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="P16" s="57" t="s">
+        <v>227</v>
       </c>
       <c r="Q16" s="47">
         <v>7</v>
       </c>
-      <c r="R16" s="52" t="s">
+      <c r="R16" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="S16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="S16" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="T16" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="U16" s="53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="67" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="T16" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="U16" s="51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="65" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="69"/>
+      <c r="D17" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="67"/>
       <c r="G17" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="66" t="s">
-        <v>228</v>
+      <c r="I17" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>188</v>
@@ -2676,53 +2742,53 @@
       <c r="N17" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="P17" s="59" t="s">
-        <v>227</v>
+      <c r="O17" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q17" s="47">
         <v>7</v>
       </c>
-      <c r="R17" s="52" t="s">
+      <c r="R17" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S17" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="S17" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="T17" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="U17" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="T17" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18" s="68" t="s">
+      <c r="D18" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="F18" s="69"/>
+      <c r="E18" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="67"/>
       <c r="G18" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="I18" s="66" t="s">
-        <v>228</v>
+      <c r="I18" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>189</v>
@@ -2735,53 +2801,53 @@
       </c>
       <c r="M18" s="43"/>
       <c r="N18" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="P18" s="59" t="s">
-        <v>227</v>
+        <v>206</v>
+      </c>
+      <c r="O18" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="P18" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q18" s="47">
         <v>7</v>
       </c>
-      <c r="R18" s="52" t="s">
+      <c r="R18" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S18" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="S18" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="T18" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="U18" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="67" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="T18" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="U18" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="65" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
+      <c r="D19" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="66" t="s">
-        <v>227</v>
+      <c r="I19" s="64" t="s">
+        <v>226</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>190</v>
@@ -2793,52 +2859,52 @@
         <v>202</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N19" s="42"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="59" t="s">
-        <v>227</v>
+      <c r="O19" s="58"/>
+      <c r="P19" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q19" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="R19" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="R19" s="52" t="s">
+      <c r="S19" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="S19" s="55" t="s">
+      <c r="T19" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="U19" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="T19" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="U19" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="67" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+    </row>
+    <row r="20" spans="1:21" s="65" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
+      <c r="D20" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="66" t="s">
-        <v>227</v>
+      <c r="I20" s="64" t="s">
+        <v>226</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>191</v>
@@ -2850,54 +2916,54 @@
         <v>202</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N20" s="42"/>
-      <c r="O20" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="P20" s="59" t="s">
-        <v>227</v>
+      <c r="O20" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="P20" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q20" s="47">
         <v>7</v>
       </c>
-      <c r="R20" s="52" t="s">
+      <c r="R20" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="S20" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="S20" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="T20" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="U20" s="53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="T20" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="U20" s="51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
+      <c r="D21" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="66" t="s">
-        <v>228</v>
+      <c r="I21" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>192</v>
@@ -2912,51 +2978,51 @@
       <c r="N21" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="P21" s="59" t="s">
-        <v>227</v>
+      <c r="O21" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="P21" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q21" s="47">
         <v>7</v>
       </c>
-      <c r="R21" s="52" t="s">
+      <c r="R21" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S21" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="S21" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="T21" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="U21" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="67" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="T21" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="U21" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="65" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
+      <c r="D22" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="70" t="s">
+      <c r="H22" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="I22" s="66" t="s">
-        <v>228</v>
+      <c r="I22" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>193</v>
@@ -2971,53 +3037,53 @@
       <c r="N22" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="O22" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="P22" s="59" t="s">
-        <v>227</v>
+      <c r="O22" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="P22" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q22" s="47">
         <v>7</v>
       </c>
-      <c r="R22" s="52" t="s">
+      <c r="R22" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S22" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="S22" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="T22" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="U22" s="53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="67" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="T22" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="U22" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="F23" s="69"/>
+      <c r="D23" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="67"/>
       <c r="G23" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="I23" s="66" t="s">
-        <v>228</v>
+      <c r="I23" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>194</v>
@@ -3030,53 +3096,53 @@
       </c>
       <c r="M23" s="43"/>
       <c r="N23" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="O23" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="P23" s="59" t="s">
-        <v>227</v>
+        <v>206</v>
+      </c>
+      <c r="O23" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="P23" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q23" s="47">
         <v>7</v>
       </c>
-      <c r="R23" s="52" t="s">
+      <c r="R23" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S23" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="S23" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="T23" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="U23" s="53" t="s">
-        <v>232</v>
+      <c r="T23" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="U23" s="51" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="74" t="s">
-        <v>266</v>
+      <c r="D24" s="72" t="s">
+        <v>265</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="8"/>
       <c r="G24" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="66" t="s">
-        <v>227</v>
+      <c r="I24" s="64" t="s">
+        <v>226</v>
       </c>
       <c r="J24" s="32" t="s">
         <v>195</v>
@@ -3088,52 +3154,52 @@
         <v>202</v>
       </c>
       <c r="M24" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="45"/>
-      <c r="P24" s="59" t="s">
-        <v>227</v>
+      <c r="P24" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q24" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="R24" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="R24" s="52" t="s">
+      <c r="S24" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="S24" s="55" t="s">
+      <c r="T24" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="U24" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="T24" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="U24" s="53" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="25" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="74" t="s">
-        <v>266</v>
+      <c r="D25" s="72" t="s">
+        <v>265</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="66" t="s">
-        <v>228</v>
+      <c r="I25" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>196</v>
@@ -3149,50 +3215,50 @@
         <v>106</v>
       </c>
       <c r="O25" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="P25" s="59" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="P25" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q25" s="47">
         <v>7</v>
       </c>
-      <c r="R25" s="52" t="s">
+      <c r="R25" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S25" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="S25" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="T25" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="U25" s="53" t="s">
-        <v>232</v>
+      <c r="T25" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="U25" s="51" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="74" t="s">
-        <v>267</v>
+      <c r="D26" s="72" t="s">
+        <v>266</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="8"/>
       <c r="G26" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="66" t="s">
-        <v>228</v>
+      <c r="I26" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="34"/>
@@ -3202,40 +3268,40 @@
       <c r="M26" s="41"/>
       <c r="N26" s="42"/>
       <c r="O26" s="45"/>
-      <c r="P26" s="59" t="s">
-        <v>227</v>
+      <c r="P26" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q26" s="47">
         <v>7</v>
       </c>
-      <c r="R26" s="52"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="53"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="51"/>
     </row>
     <row r="27" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="74" t="s">
-        <v>267</v>
+      <c r="D27" s="72" t="s">
+        <v>266</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="8"/>
       <c r="G27" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="H27" s="66" t="s">
+      <c r="H27" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="66" t="s">
-        <v>228</v>
+      <c r="I27" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>197</v>
@@ -3251,42 +3317,42 @@
         <v>103</v>
       </c>
       <c r="O27" s="45"/>
-      <c r="P27" s="59" t="s">
-        <v>227</v>
+      <c r="P27" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="Q27" s="47">
         <v>7</v>
       </c>
-      <c r="R27" s="52" t="s">
+      <c r="R27" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="S27" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="S27" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="T27" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="U27" s="53" t="s">
-        <v>232</v>
+      <c r="T27" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="U27" s="51" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="77"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="82"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="80"/>
       <c r="K28" s="17"/>
       <c r="L28" s="16"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="44"/>
-      <c r="P28" s="59"/>
+      <c r="P28" s="57"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="21"/>
       <c r="S28" s="20"/>
@@ -3296,20 +3362,20 @@
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="74"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="12"/>
       <c r="F29" s="8"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="71"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="14"/>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="45"/>
-      <c r="P29" s="60"/>
+      <c r="P29" s="58"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="10"/>
       <c r="S29" s="9"/>
@@ -3319,20 +3385,20 @@
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="74"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="12"/>
       <c r="F30" s="8"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="71"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="14"/>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="45"/>
-      <c r="P30" s="60"/>
+      <c r="P30" s="58"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="10"/>
       <c r="S30" s="9"/>
@@ -3342,20 +3408,20 @@
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="74"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="12"/>
       <c r="F31" s="8"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="71"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="14"/>
       <c r="K31" s="6"/>
       <c r="L31" s="5"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="45"/>
-      <c r="P31" s="60"/>
+      <c r="P31" s="58"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="10"/>
       <c r="S31" s="9"/>
@@ -3365,20 +3431,20 @@
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="74"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="12"/>
       <c r="F32" s="8"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="71"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="14"/>
       <c r="K32" s="6"/>
       <c r="L32" s="5"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="45"/>
-      <c r="P32" s="60"/>
+      <c r="P32" s="58"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="10"/>
       <c r="S32" s="9"/>
@@ -3388,20 +3454,20 @@
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="74"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="72"/>
       <c r="E33" s="12"/>
       <c r="F33" s="8"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="71"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="69"/>
       <c r="J33" s="14"/>
       <c r="K33" s="6"/>
       <c r="L33" s="5"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="45"/>
-      <c r="P33" s="60"/>
+      <c r="P33" s="58"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="10"/>
       <c r="S33" s="9"/>
@@ -3411,20 +3477,20 @@
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="74"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="12"/>
       <c r="F34" s="8"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="71"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="14"/>
       <c r="K34" s="6"/>
       <c r="L34" s="5"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="45"/>
-      <c r="P34" s="60"/>
+      <c r="P34" s="58"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="10"/>
       <c r="S34" s="9"/>
@@ -3434,20 +3500,20 @@
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="74"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="12"/>
       <c r="F35" s="8"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="71"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="69"/>
       <c r="J35" s="14"/>
       <c r="K35" s="6"/>
       <c r="L35" s="5"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="45"/>
-      <c r="P35" s="60"/>
+      <c r="P35" s="58"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="10"/>
       <c r="S35" s="9"/>
@@ -3457,20 +3523,20 @@
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="74"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="12"/>
       <c r="F36" s="8"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="71"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="14"/>
       <c r="K36" s="6"/>
       <c r="L36" s="5"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="45"/>
-      <c r="P36" s="60"/>
+      <c r="P36" s="58"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="10"/>
       <c r="S36" s="9"/>
@@ -3480,20 +3546,20 @@
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="74"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="12"/>
       <c r="F37" s="8"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="71"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="69"/>
       <c r="J37" s="14"/>
       <c r="K37" s="6"/>
       <c r="L37" s="5"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="45"/>
-      <c r="P37" s="60"/>
+      <c r="P37" s="58"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -3503,20 +3569,20 @@
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="74"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="12"/>
       <c r="F38" s="8"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="71"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="69"/>
       <c r="J38" s="14"/>
       <c r="K38" s="6"/>
       <c r="L38" s="5"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="45"/>
-      <c r="P38" s="60"/>
+      <c r="P38" s="58"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="10"/>
       <c r="S38" s="9"/>
@@ -3526,20 +3592,20 @@
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="74"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="12"/>
       <c r="F39" s="8"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="71"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="69"/>
       <c r="J39" s="14"/>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="45"/>
-      <c r="P39" s="60"/>
+      <c r="P39" s="58"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="10"/>
       <c r="S39" s="9"/>
@@ -3549,20 +3615,20 @@
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="74"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="12"/>
       <c r="F40" s="8"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="71"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="69"/>
       <c r="J40" s="14"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="45"/>
-      <c r="P40" s="60"/>
+      <c r="P40" s="58"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="10"/>
       <c r="S40" s="9"/>
@@ -3572,20 +3638,20 @@
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="74"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="12"/>
       <c r="F41" s="8"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="71"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="69"/>
       <c r="J41" s="14"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="45"/>
-      <c r="P41" s="60"/>
+      <c r="P41" s="58"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="10"/>
       <c r="S41" s="9"/>
@@ -3595,20 +3661,20 @@
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="74"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="12"/>
       <c r="F42" s="8"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="71"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="69"/>
       <c r="J42" s="14"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="45"/>
-      <c r="P42" s="60"/>
+      <c r="P42" s="58"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="10"/>
       <c r="S42" s="9"/>
@@ -3618,20 +3684,20 @@
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="74"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="12"/>
       <c r="F43" s="8"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="71"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="69"/>
       <c r="J43" s="14"/>
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="45"/>
-      <c r="P43" s="60"/>
+      <c r="P43" s="58"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="10"/>
       <c r="S43" s="9"/>
@@ -3641,20 +3707,20 @@
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="74"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="12"/>
       <c r="F44" s="8"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="71"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="69"/>
       <c r="J44" s="14"/>
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="45"/>
-      <c r="P44" s="60"/>
+      <c r="P44" s="58"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="10"/>
       <c r="S44" s="9"/>
@@ -3664,20 +3730,20 @@
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="74"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="12"/>
       <c r="F45" s="8"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="71"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="69"/>
       <c r="J45" s="14"/>
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="45"/>
-      <c r="P45" s="60"/>
+      <c r="P45" s="58"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="10"/>
       <c r="S45" s="9"/>
@@ -3687,20 +3753,20 @@
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="74"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="12"/>
       <c r="F46" s="8"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="71"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="69"/>
       <c r="J46" s="14"/>
       <c r="K46" s="6"/>
       <c r="L46" s="5"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="45"/>
-      <c r="P46" s="60"/>
+      <c r="P46" s="58"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="10"/>
       <c r="S46" s="9"/>
@@ -3710,20 +3776,20 @@
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="74"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="12"/>
       <c r="F47" s="8"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="71"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="69"/>
       <c r="J47" s="14"/>
       <c r="K47" s="6"/>
       <c r="L47" s="5"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="45"/>
-      <c r="P47" s="60"/>
+      <c r="P47" s="58"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="10"/>
       <c r="S47" s="9"/>
@@ -3733,20 +3799,20 @@
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="74"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="12"/>
       <c r="F48" s="8"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="71"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="69"/>
       <c r="J48" s="14"/>
       <c r="K48" s="6"/>
       <c r="L48" s="5"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="45"/>
-      <c r="P48" s="60"/>
+      <c r="P48" s="58"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="10"/>
       <c r="S48" s="9"/>
@@ -3756,20 +3822,20 @@
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="74"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="72"/>
       <c r="E49" s="12"/>
       <c r="F49" s="8"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="71"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="69"/>
       <c r="J49" s="14"/>
       <c r="K49" s="6"/>
       <c r="L49" s="5"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="45"/>
-      <c r="P49" s="60"/>
+      <c r="P49" s="58"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="10"/>
       <c r="S49" s="9"/>
@@ -3779,20 +3845,20 @@
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="74"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="72"/>
       <c r="E50" s="12"/>
       <c r="F50" s="8"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="71"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="69"/>
       <c r="J50" s="14"/>
       <c r="K50" s="6"/>
       <c r="L50" s="5"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="45"/>
-      <c r="P50" s="60"/>
+      <c r="P50" s="58"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="10"/>
       <c r="S50" s="9"/>
@@ -3802,20 +3868,20 @@
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="74"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="12"/>
       <c r="F51" s="8"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="71"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="69"/>
       <c r="J51" s="14"/>
       <c r="K51" s="6"/>
       <c r="L51" s="5"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="45"/>
-      <c r="P51" s="60"/>
+      <c r="P51" s="58"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="10"/>
       <c r="S51" s="9"/>
@@ -3825,20 +3891,20 @@
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="74"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="72"/>
       <c r="E52" s="12"/>
       <c r="F52" s="8"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="71"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="69"/>
       <c r="J52" s="14"/>
       <c r="K52" s="6"/>
       <c r="L52" s="5"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="45"/>
-      <c r="P52" s="60"/>
+      <c r="P52" s="58"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="10"/>
       <c r="S52" s="9"/>
@@ -3848,20 +3914,20 @@
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="74"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="72"/>
       <c r="E53" s="12"/>
       <c r="F53" s="8"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="71"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="69"/>
       <c r="J53" s="14"/>
       <c r="K53" s="6"/>
       <c r="L53" s="5"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="45"/>
-      <c r="P53" s="60"/>
+      <c r="P53" s="58"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="10"/>
       <c r="S53" s="9"/>
@@ -3871,20 +3937,20 @@
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="74"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="72"/>
       <c r="E54" s="12"/>
       <c r="F54" s="8"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="71"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="69"/>
       <c r="J54" s="14"/>
       <c r="K54" s="6"/>
       <c r="L54" s="5"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="45"/>
-      <c r="P54" s="60"/>
+      <c r="P54" s="58"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="10"/>
       <c r="S54" s="9"/>
@@ -3894,20 +3960,20 @@
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="74"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="72"/>
       <c r="E55" s="12"/>
       <c r="F55" s="8"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="71"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="69"/>
       <c r="J55" s="14"/>
       <c r="K55" s="6"/>
       <c r="L55" s="5"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="45"/>
-      <c r="P55" s="60"/>
+      <c r="P55" s="58"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="10"/>
       <c r="S55" s="9"/>
@@ -3917,20 +3983,20 @@
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="74"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="72"/>
       <c r="E56" s="12"/>
       <c r="F56" s="8"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="71"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="69"/>
       <c r="J56" s="14"/>
       <c r="K56" s="6"/>
       <c r="L56" s="5"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="45"/>
-      <c r="P56" s="60"/>
+      <c r="P56" s="58"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="10"/>
       <c r="S56" s="9"/>
@@ -3940,20 +4006,20 @@
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="74"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="72"/>
       <c r="E57" s="12"/>
       <c r="F57" s="8"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="71"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="69"/>
       <c r="J57" s="14"/>
       <c r="K57" s="6"/>
       <c r="L57" s="5"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="45"/>
-      <c r="P57" s="60"/>
+      <c r="P57" s="58"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="10"/>
       <c r="S57" s="9"/>
@@ -3963,20 +4029,20 @@
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="74"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="72"/>
       <c r="E58" s="12"/>
       <c r="F58" s="8"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="71"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="69"/>
       <c r="J58" s="14"/>
       <c r="K58" s="6"/>
       <c r="L58" s="5"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="45"/>
-      <c r="P58" s="60"/>
+      <c r="P58" s="58"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="10"/>
       <c r="S58" s="9"/>
@@ -3986,20 +4052,20 @@
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="74"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="72"/>
       <c r="E59" s="12"/>
       <c r="F59" s="8"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="71"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="69"/>
       <c r="J59" s="14"/>
       <c r="K59" s="6"/>
       <c r="L59" s="5"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="45"/>
-      <c r="P59" s="60"/>
+      <c r="P59" s="58"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="10"/>
       <c r="S59" s="9"/>
@@ -4009,20 +4075,20 @@
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="74"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="72"/>
       <c r="E60" s="12"/>
       <c r="F60" s="8"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="71"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="69"/>
       <c r="J60" s="14"/>
       <c r="K60" s="6"/>
       <c r="L60" s="5"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="45"/>
-      <c r="P60" s="60"/>
+      <c r="P60" s="58"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="10"/>
       <c r="S60" s="9"/>
@@ -4032,20 +4098,20 @@
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="74"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="72"/>
       <c r="E61" s="12"/>
       <c r="F61" s="8"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="71"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="69"/>
       <c r="J61" s="14"/>
       <c r="K61" s="6"/>
       <c r="L61" s="5"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="45"/>
-      <c r="P61" s="60"/>
+      <c r="P61" s="58"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="10"/>
       <c r="S61" s="9"/>
@@ -4055,20 +4121,20 @@
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="74"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="12"/>
       <c r="F62" s="8"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="71"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="69"/>
       <c r="J62" s="14"/>
       <c r="K62" s="6"/>
       <c r="L62" s="5"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="45"/>
-      <c r="P62" s="60"/>
+      <c r="P62" s="58"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="10"/>
       <c r="S62" s="9"/>
@@ -4078,20 +4144,20 @@
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="74"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="72"/>
       <c r="E63" s="12"/>
       <c r="F63" s="8"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="71"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="69"/>
       <c r="J63" s="14"/>
       <c r="K63" s="6"/>
       <c r="L63" s="5"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="45"/>
-      <c r="P63" s="60"/>
+      <c r="P63" s="58"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="10"/>
       <c r="S63" s="9"/>
@@ -4101,20 +4167,20 @@
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="74"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="72"/>
       <c r="E64" s="12"/>
       <c r="F64" s="8"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="71"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="69"/>
       <c r="J64" s="14"/>
       <c r="K64" s="6"/>
       <c r="L64" s="5"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="45"/>
-      <c r="P64" s="60"/>
+      <c r="P64" s="58"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="10"/>
       <c r="S64" s="9"/>
@@ -4124,20 +4190,20 @@
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="74"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="72"/>
       <c r="E65" s="12"/>
       <c r="F65" s="8"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="71"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="69"/>
       <c r="J65" s="14"/>
       <c r="K65" s="6"/>
       <c r="L65" s="5"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="45"/>
-      <c r="P65" s="60"/>
+      <c r="P65" s="58"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="10"/>
       <c r="S65" s="9"/>
@@ -4147,20 +4213,20 @@
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="74"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="72"/>
       <c r="E66" s="12"/>
       <c r="F66" s="8"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="71"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="69"/>
       <c r="J66" s="14"/>
       <c r="K66" s="6"/>
       <c r="L66" s="5"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="45"/>
-      <c r="P66" s="60"/>
+      <c r="P66" s="58"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="10"/>
       <c r="S66" s="9"/>
@@ -4170,20 +4236,20 @@
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="74"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="72"/>
       <c r="E67" s="12"/>
       <c r="F67" s="8"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="71"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="69"/>
       <c r="J67" s="14"/>
       <c r="K67" s="6"/>
       <c r="L67" s="5"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="45"/>
-      <c r="P67" s="60"/>
+      <c r="P67" s="58"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="10"/>
       <c r="S67" s="9"/>
@@ -4193,20 +4259,20 @@
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="74"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="72"/>
       <c r="E68" s="12"/>
       <c r="F68" s="8"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="71"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="69"/>
       <c r="J68" s="14"/>
       <c r="K68" s="6"/>
       <c r="L68" s="5"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="45"/>
-      <c r="P68" s="60"/>
+      <c r="P68" s="58"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="10"/>
       <c r="S68" s="9"/>
@@ -4216,20 +4282,20 @@
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="74"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="72"/>
       <c r="E69" s="12"/>
       <c r="F69" s="8"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="71"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="69"/>
       <c r="J69" s="14"/>
       <c r="K69" s="6"/>
       <c r="L69" s="5"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="45"/>
-      <c r="P69" s="60"/>
+      <c r="P69" s="58"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="10"/>
       <c r="S69" s="9"/>
@@ -4239,20 +4305,20 @@
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="74"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="72"/>
       <c r="E70" s="12"/>
       <c r="F70" s="8"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="71"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="69"/>
       <c r="J70" s="14"/>
       <c r="K70" s="6"/>
       <c r="L70" s="5"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="45"/>
-      <c r="P70" s="60"/>
+      <c r="P70" s="58"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="10"/>
       <c r="S70" s="9"/>
@@ -4625,6 +4691,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4639,12 +4711,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K27">
